--- a/data/trans_camb/IP16B03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B03-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,79</t>
+          <t>0,0; 54,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,89</t>
+          <t>0,0; 53,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,86</t>
+          <t>0,0; 29,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,8; 14,16</t>
+          <t>-69,8; 14,17</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 116,37</t>
+          <t>0,0; 118,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 116,84</t>
+          <t>0,0; 116,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,2</t>
+          <t>0,0; 41,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,0; 16,46</t>
+          <t>-73,16; 16,46</t>
         </is>
       </c>
     </row>
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,07</t>
+          <t>0,0; 31,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,13</t>
+          <t>0,0; 31,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-45,35; 0,0</t>
+          <t>-41,59; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 8,69</t>
+          <t>-17,38; 8,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 8,6</t>
+          <t>-17,36; 8,73</t>
         </is>
       </c>
     </row>
@@ -1183,17 +1183,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,95</t>
+          <t>0,0; 45,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,06</t>
+          <t>0,0; 45,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,35; 0,0</t>
+          <t>-41,59; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 9,46</t>
+          <t>-18,04; 9,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 9,41</t>
+          <t>-17,56; 9,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B03-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B03-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,17 +601,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-49,18</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-49,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -677,17 +677,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-49,18%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-49,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-50,0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>13,53</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>13,53</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-50,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,84</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 53,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>0,0; 54,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,43</t>
+          <t>0,0; 36,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,8; 14,17</t>
+          <t>-68,06; 14,39</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-50,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>15,64%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>15,64%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-50,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 118,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 116,58</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 116,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>0,0; 117,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,71</t>
+          <t>0,0; 57,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-73,16; 16,46</t>
+          <t>-73,0; 16,78</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-10,33</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-19,11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>7,57</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>7,57</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-10,33</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-19,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,08</t>
+          <t>-50,46; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,11</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 0,0</t>
+          <t>0,0; 30,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-75,0; 0,0</t>
+          <t>0,0; 37,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 8,75</t>
+          <t>-17,14; 8,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 8,73</t>
+          <t>-16,8; 8,75</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-10,33%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-19,11%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>8,19%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>8,19%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-10,33%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-19,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,1</t>
+          <t>-50,46; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,17</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 0,0</t>
+          <t>0,0; 43,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-75,0; 0,0</t>
+          <t>0,0; 61,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 9,55</t>
+          <t>-17,67; 9,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 9,53</t>
+          <t>-17,32; 9,55</t>
         </is>
       </c>
     </row>
